--- a/biology/Botanique/Solidago_ptarmicoides/Solidago_ptarmicoides.xlsx
+++ b/biology/Botanique/Solidago_ptarmicoides/Solidago_ptarmicoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solidago ptarmicoides, la Verge d'or faux-ptarmica, est une espèce de plantes à fleurs de la famille des Asteraceae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante se distingue dans le genre par ses fleurs de couleur blanche à crème, disposées dans des inflorescences organisées en corymbes de capitules, plutôt qu’en grappes allongées. Une plante peut parfois produire jusqu'à 50 petits capitules. Les feuilles sont étroites et linéaires, souvent plutôt rigides. L'espèce préfère les sols secs et sablonneux et les prairies herbeuses[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante se distingue dans le genre par ses fleurs de couleur blanche à crème, disposées dans des inflorescences organisées en corymbes de capitules, plutôt qu’en grappes allongées. Une plante peut parfois produire jusqu'à 50 petits capitules. Les feuilles sont étroites et linéaires, souvent plutôt rigides. L'espèce préfère les sols secs et sablonneux et les prairies herbeuses.
 </t>
         </is>
       </c>
